--- a/TableData/stage_data.xlsx
+++ b/TableData/stage_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>stage</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -288,79 +291,90 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>10.0</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C3" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C4" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C5" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C6" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C7" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>7.0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>16.0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>16.0</v>
       </c>
     </row>
